--- a/StructureDefinition-dose-given.xlsx
+++ b/StructureDefinition-dose-given.xlsx
@@ -206,7 +206,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/dose-given</t>
+    <t>https://jembi.github.io/commcare-vaccine-ig//StructureDefinition/dose-given</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-dose-given.xlsx
+++ b/StructureDefinition-dose-given.xlsx
@@ -206,7 +206,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://jembi.github.io/commcare-vaccine-ig//StructureDefinition/dose-given</t>
+    <t>https://jembi.github.io/covid19-immunization-ig//StructureDefinition/dose-given</t>
   </si>
   <si>
     <t>N/A</t>
